--- a/data/2020-03-10/Senior Cubers Worldwide - Weekly Competition - 2020-03-10.xlsx
+++ b/data/2020-03-10/Senior Cubers Worldwide - Weekly Competition - 2020-03-10.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Projects\WCA\scw-comp\data\2020-03-10\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5C92BC9D-72F1-4B83-8BC8-A23D066C2C16}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{56D566CD-9D89-4B9F-A015-B3C09B28B9B0}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -384,9 +384,6 @@
     <t>https://www.facebook.com/events/164742401163863/permalink/167793530858750/</t>
   </si>
   <si>
-    <t>Tim Salay</t>
-  </si>
-  <si>
     <t>https://www.facebook.com/events/164742401163863/permalink/164951044476332/</t>
   </si>
   <si>
@@ -472,6 +469,9 @@
   </si>
   <si>
     <t>1:57.43</t>
+  </si>
+  <si>
+    <t>Timothy Salay</t>
   </si>
 </sst>
 </file>
@@ -1013,7 +1013,7 @@
   <dimension ref="A1:N1060"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A10" sqref="A10:XFD10"/>
+      <selection activeCell="B22" sqref="B22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1"/>
@@ -1104,7 +1104,7 @@
         <v>1</v>
       </c>
       <c r="B4" s="13" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="C4" s="14" t="s">
         <v>15</v>
@@ -1116,7 +1116,7 @@
         <v>13.23</v>
       </c>
       <c r="F4" s="17" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="G4" s="16">
         <v>13.65</v>
@@ -1760,8 +1760,8 @@
       <c r="A21" s="33">
         <v>18</v>
       </c>
-      <c r="B21" s="13" t="s">
-        <v>117</v>
+      <c r="B21" s="65" t="s">
+        <v>146</v>
       </c>
       <c r="C21" s="14" t="s">
         <v>22</v>
@@ -1791,7 +1791,7 @@
         <v>42.4</v>
       </c>
       <c r="L21" s="18" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="M21" s="15"/>
       <c r="N21" s="15"/>
@@ -1828,7 +1828,7 @@
         <v>39.07</v>
       </c>
       <c r="L22" s="27" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
     </row>
     <row r="23" spans="1:14" ht="12.75">
@@ -1866,7 +1866,7 @@
         <v>37.700000000000003</v>
       </c>
       <c r="L23" s="27" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
     </row>
     <row r="24" spans="1:14" ht="12.75">
@@ -1901,7 +1901,7 @@
         <v>37.21</v>
       </c>
       <c r="K24" s="13" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="L24" s="27" t="s">
         <v>100</v>
@@ -23799,7 +23799,7 @@
         <v>18</v>
       </c>
       <c r="D14" s="66" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="E14" s="21" t="s">
         <v>86</v>
@@ -32240,7 +32240,7 @@
   <sheetData>
     <row r="1" spans="1:7" ht="15.75" customHeight="1">
       <c r="A1" s="57" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="B1" s="68" t="s">
         <v>1</v>
@@ -32269,16 +32269,16 @@
         <v>4</v>
       </c>
       <c r="D3" s="61" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="E3" s="61" t="s">
         <v>7</v>
       </c>
       <c r="F3" s="62" t="s">
+        <v>123</v>
+      </c>
+      <c r="G3" s="63" t="s">
         <v>124</v>
-      </c>
-      <c r="G3" s="63" t="s">
-        <v>125</v>
       </c>
     </row>
     <row r="4" spans="1:7" ht="12.75">
@@ -32286,7 +32286,7 @@
         <v>1</v>
       </c>
       <c r="B4" s="13" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="C4" s="20" t="s">
         <v>18</v>
@@ -32298,7 +32298,7 @@
         <v>38</v>
       </c>
       <c r="F4" s="27" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
     </row>
     <row r="5" spans="1:7" ht="12.75">
@@ -32306,7 +32306,7 @@
         <v>2</v>
       </c>
       <c r="B5" s="19" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="C5" s="14" t="s">
         <v>22</v>
@@ -32318,7 +32318,7 @@
         <v>36</v>
       </c>
       <c r="F5" s="27" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="G5" s="13"/>
     </row>
@@ -32327,7 +32327,7 @@
         <v>3</v>
       </c>
       <c r="B6" s="19" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="C6" s="20" t="s">
         <v>18</v>
@@ -32339,7 +32339,7 @@
         <v>51</v>
       </c>
       <c r="F6" s="27" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="G6" s="13"/>
     </row>
@@ -32348,7 +32348,7 @@
         <v>4</v>
       </c>
       <c r="B7" s="52" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="C7" s="20" t="s">
         <v>15</v>
@@ -32358,10 +32358,10 @@
       </c>
       <c r="E7" s="30"/>
       <c r="F7" s="27" t="s">
+        <v>131</v>
+      </c>
+      <c r="G7" s="13" t="s">
         <v>132</v>
-      </c>
-      <c r="G7" s="13" t="s">
-        <v>133</v>
       </c>
     </row>
     <row r="8" spans="1:7" ht="12.75">
@@ -32379,7 +32379,7 @@
       </c>
       <c r="E8" s="64"/>
       <c r="F8" s="27" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
     </row>
     <row r="9" spans="1:7" ht="12.75">
@@ -32387,7 +32387,7 @@
         <v>6</v>
       </c>
       <c r="B9" s="19" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="C9" s="20" t="s">
         <v>15</v>
@@ -32397,7 +32397,7 @@
       </c>
       <c r="E9" s="17"/>
       <c r="F9" s="18" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
     </row>
     <row r="10" spans="1:7" ht="12.75">
@@ -32405,7 +32405,7 @@
         <v>7</v>
       </c>
       <c r="B10" s="13" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="C10" s="20" t="s">
         <v>18</v>
@@ -32415,7 +32415,7 @@
       </c>
       <c r="E10" s="64"/>
       <c r="F10" s="27" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
     </row>
     <row r="11" spans="1:7" ht="12.75">
@@ -32423,7 +32423,7 @@
         <v>8</v>
       </c>
       <c r="B11" s="19" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="C11" s="20" t="s">
         <v>15</v>
@@ -32433,10 +32433,10 @@
       </c>
       <c r="E11" s="17"/>
       <c r="F11" s="18" t="s">
+        <v>139</v>
+      </c>
+      <c r="G11" s="13" t="s">
         <v>140</v>
-      </c>
-      <c r="G11" s="13" t="s">
-        <v>141</v>
       </c>
     </row>
     <row r="12" spans="1:7" ht="12.75">
@@ -32454,10 +32454,10 @@
       </c>
       <c r="E12" s="64"/>
       <c r="F12" s="27" t="s">
+        <v>141</v>
+      </c>
+      <c r="G12" s="13" t="s">
         <v>142</v>
-      </c>
-      <c r="G12" s="13" t="s">
-        <v>143</v>
       </c>
     </row>
     <row r="13" spans="1:7" ht="12.75">

--- a/data/2020-03-10/Senior Cubers Worldwide - Weekly Competition - 2020-03-10.xlsx
+++ b/data/2020-03-10/Senior Cubers Worldwide - Weekly Competition - 2020-03-10.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22527"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22624"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Projects\WCA\scw-comp\data\2020-03-10\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{56D566CD-9D89-4B9F-A015-B3C09B28B9B0}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E31A6B70-5F70-452C-8C45-97B915A0BABE}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="3x3x3" sheetId="1" r:id="rId1"/>
@@ -232,9 +232,6 @@
   </si>
   <si>
     <t>https://www.facebook.com/events/654143022005686/permalink/657880148298640/</t>
-  </si>
-  <si>
-    <t>장준호</t>
   </si>
   <si>
     <t>https://www.facebook.com/events/654143022005686/permalink/658259054927416/</t>
@@ -472,6 +469,9 @@
   </si>
   <si>
     <t>Timothy Salay</t>
+  </si>
+  <si>
+    <t>Jang Junho (장준호)</t>
   </si>
 </sst>
 </file>
@@ -1012,8 +1012,8 @@
   </sheetPr>
   <dimension ref="A1:N1060"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B22" sqref="B22"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B18" sqref="B18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1"/>
@@ -1104,7 +1104,7 @@
         <v>1</v>
       </c>
       <c r="B4" s="13" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="C4" s="14" t="s">
         <v>15</v>
@@ -1116,7 +1116,7 @@
         <v>13.23</v>
       </c>
       <c r="F4" s="17" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="G4" s="16">
         <v>13.65</v>
@@ -1292,10 +1292,10 @@
         <v>18.059999999999999</v>
       </c>
       <c r="L8" s="18" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="M8" s="15" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="N8" s="15"/>
     </row>
@@ -1304,7 +1304,7 @@
         <v>6</v>
       </c>
       <c r="B9" s="34" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="C9" s="17" t="s">
         <v>18</v>
@@ -1332,7 +1332,7 @@
         <v>15.57</v>
       </c>
       <c r="L9" s="18" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="M9" s="15"/>
       <c r="N9" s="15"/>
@@ -1372,7 +1372,7 @@
         <v>20.27</v>
       </c>
       <c r="L10" s="18" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
     </row>
     <row r="11" spans="1:14" ht="12.75">
@@ -1407,7 +1407,7 @@
         <v>15.8</v>
       </c>
       <c r="L11" s="27" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
     </row>
     <row r="12" spans="1:14" ht="12.75">
@@ -1443,7 +1443,7 @@
         <v>20.260000000000002</v>
       </c>
       <c r="L12" s="18" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="M12" s="15"/>
       <c r="N12" s="15"/>
@@ -1453,7 +1453,7 @@
         <v>10</v>
       </c>
       <c r="B13" s="13" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="C13" s="36" t="s">
         <v>22</v>
@@ -1480,7 +1480,7 @@
         <v>21.35</v>
       </c>
       <c r="L13" s="18" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="M13" s="15"/>
       <c r="N13" s="15"/>
@@ -1518,7 +1518,7 @@
         <v>24.79</v>
       </c>
       <c r="L14" s="18" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="M14" s="15"/>
       <c r="N14" s="15"/>
@@ -1556,7 +1556,7 @@
         <v>20.97</v>
       </c>
       <c r="L15" s="18" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="M15" s="15"/>
       <c r="N15" s="15"/>
@@ -1566,7 +1566,7 @@
         <v>13</v>
       </c>
       <c r="B16" s="13" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="C16" s="14" t="s">
         <v>22</v>
@@ -1594,7 +1594,7 @@
         <v>25.34</v>
       </c>
       <c r="L16" s="18" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="M16" s="15"/>
       <c r="N16" s="15"/>
@@ -1607,7 +1607,7 @@
         <v>53</v>
       </c>
       <c r="C17" s="14" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="D17" s="15">
         <v>26.01</v>
@@ -1632,7 +1632,7 @@
         <v>22.98</v>
       </c>
       <c r="L17" s="18" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="M17" s="15"/>
       <c r="N17" s="15"/>
@@ -1642,7 +1642,7 @@
         <v>15</v>
       </c>
       <c r="B18" s="13" t="s">
-        <v>67</v>
+        <v>146</v>
       </c>
       <c r="C18" s="14" t="s">
         <v>22</v>
@@ -1672,7 +1672,7 @@
         <v>31.94</v>
       </c>
       <c r="L18" s="27" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
     </row>
     <row r="19" spans="1:14" ht="12.75">
@@ -1711,7 +1711,7 @@
         <v>33.24</v>
       </c>
       <c r="L19" s="18" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="M19" s="15"/>
       <c r="N19" s="15"/>
@@ -1721,7 +1721,7 @@
         <v>17</v>
       </c>
       <c r="B20" s="13" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="C20" s="14" t="s">
         <v>18</v>
@@ -1751,7 +1751,7 @@
         <v>33.03</v>
       </c>
       <c r="L20" s="18" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="M20" s="15"/>
       <c r="N20" s="15"/>
@@ -1761,7 +1761,7 @@
         <v>18</v>
       </c>
       <c r="B21" s="65" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="C21" s="14" t="s">
         <v>22</v>
@@ -1791,7 +1791,7 @@
         <v>42.4</v>
       </c>
       <c r="L21" s="18" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="M21" s="15"/>
       <c r="N21" s="15"/>
@@ -1801,7 +1801,7 @@
         <v>19</v>
       </c>
       <c r="B22" s="13" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="C22" s="14" t="s">
         <v>18</v>
@@ -1828,7 +1828,7 @@
         <v>39.07</v>
       </c>
       <c r="L22" s="27" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
     </row>
     <row r="23" spans="1:14" ht="12.75">
@@ -1836,7 +1836,7 @@
         <v>20</v>
       </c>
       <c r="B23" s="13" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="C23" s="14" t="s">
         <v>22</v>
@@ -1866,7 +1866,7 @@
         <v>37.700000000000003</v>
       </c>
       <c r="L23" s="27" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
     </row>
     <row r="24" spans="1:14" ht="12.75">
@@ -1874,7 +1874,7 @@
         <v>21</v>
       </c>
       <c r="B24" s="65" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="C24" s="14" t="s">
         <v>22</v>
@@ -1886,7 +1886,7 @@
         <v>37.21</v>
       </c>
       <c r="F24" s="14" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="G24" s="13">
         <v>50.81</v>
@@ -1901,10 +1901,10 @@
         <v>37.21</v>
       </c>
       <c r="K24" s="13" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="L24" s="27" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
     </row>
     <row r="26" spans="1:14" ht="12.75">
@@ -14390,7 +14390,7 @@
   <dimension ref="A1:M1041"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A16" sqref="A16"/>
+      <selection activeCell="B12" sqref="B12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1"/>
@@ -14584,7 +14584,7 @@
         <v>24</v>
       </c>
       <c r="L6" s="27" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
     </row>
     <row r="7" spans="1:13" ht="12.75">
@@ -14779,7 +14779,7 @@
         <v>9</v>
       </c>
       <c r="B12" s="13" t="s">
-        <v>67</v>
+        <v>146</v>
       </c>
       <c r="C12" s="14" t="s">
         <v>22</v>
@@ -14807,7 +14807,7 @@
         <v>10.63</v>
       </c>
       <c r="L12" s="27" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
     </row>
     <row r="13" spans="1:13" ht="15.75" customHeight="1">
@@ -14815,7 +14815,7 @@
         <v>10</v>
       </c>
       <c r="B13" s="13" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="C13" s="14" t="s">
         <v>18</v>
@@ -14843,7 +14843,7 @@
         <v>13.48</v>
       </c>
       <c r="L13" s="27" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
     </row>
     <row r="14" spans="1:13" ht="15.75" customHeight="1">
@@ -14851,7 +14851,7 @@
         <v>11</v>
       </c>
       <c r="B14" s="13" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="C14" s="14" t="s">
         <v>22</v>
@@ -14879,7 +14879,7 @@
         <v>12.86</v>
       </c>
       <c r="L14" s="27" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
     </row>
     <row r="15" spans="1:13" ht="15.75" customHeight="1">
@@ -14887,7 +14887,7 @@
         <v>12</v>
       </c>
       <c r="B15" s="34" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="C15" s="17" t="s">
         <v>22</v>
@@ -14914,7 +14914,7 @@
         <v>11.5</v>
       </c>
       <c r="L15" s="27" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
     </row>
     <row r="16" spans="1:13" ht="15.75" customHeight="1">
@@ -23320,8 +23320,8 @@
   </sheetPr>
   <dimension ref="A1:M1039"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A15" sqref="A15"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B12" sqref="B12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1"/>
@@ -23694,7 +23694,7 @@
         <v>54.04</v>
       </c>
       <c r="H11" s="21" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="I11" s="21">
         <v>52.12</v>
@@ -23706,7 +23706,7 @@
         <v>59.14</v>
       </c>
       <c r="L11" s="27" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
     </row>
     <row r="12" spans="1:13" ht="15.75" customHeight="1">
@@ -23714,40 +23714,40 @@
         <v>9</v>
       </c>
       <c r="B12" s="34" t="s">
-        <v>67</v>
+        <v>146</v>
       </c>
       <c r="C12" s="17" t="s">
         <v>22</v>
       </c>
       <c r="D12" s="35" t="s">
+        <v>77</v>
+      </c>
+      <c r="E12" s="35" t="s">
         <v>78</v>
       </c>
-      <c r="E12" s="35" t="s">
+      <c r="F12" s="26" t="s">
+        <v>95</v>
+      </c>
+      <c r="G12" s="35" t="s">
         <v>79</v>
       </c>
-      <c r="F12" s="26" t="s">
-        <v>96</v>
-      </c>
-      <c r="G12" s="35" t="s">
+      <c r="H12" s="35" t="s">
         <v>80</v>
       </c>
-      <c r="H12" s="35" t="s">
+      <c r="I12" s="35" t="s">
         <v>81</v>
       </c>
-      <c r="I12" s="35" t="s">
+      <c r="J12" s="35" t="s">
         <v>82</v>
       </c>
-      <c r="J12" s="35" t="s">
+      <c r="K12" s="35" t="s">
+        <v>78</v>
+      </c>
+      <c r="L12" s="27" t="s">
         <v>83</v>
       </c>
-      <c r="K12" s="35" t="s">
-        <v>79</v>
-      </c>
-      <c r="L12" s="27" t="s">
+      <c r="M12" s="37" t="s">
         <v>84</v>
-      </c>
-      <c r="M12" s="37" t="s">
-        <v>85</v>
       </c>
     </row>
     <row r="13" spans="1:13" ht="15.75" customHeight="1">
@@ -23755,37 +23755,37 @@
         <v>10</v>
       </c>
       <c r="B13" s="13" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="C13" s="17" t="s">
         <v>22</v>
       </c>
       <c r="D13" s="38" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E13" s="35" t="s">
+        <v>94</v>
+      </c>
+      <c r="F13" s="26" t="s">
         <v>95</v>
       </c>
-      <c r="F13" s="26" t="s">
+      <c r="G13" s="38" t="s">
+        <v>94</v>
+      </c>
+      <c r="H13" s="38" t="s">
         <v>96</v>
       </c>
-      <c r="G13" s="38" t="s">
-        <v>95</v>
-      </c>
-      <c r="H13" s="38" t="s">
+      <c r="I13" s="38" t="s">
         <v>97</v>
       </c>
-      <c r="I13" s="38" t="s">
+      <c r="J13" s="38" t="s">
         <v>98</v>
-      </c>
-      <c r="J13" s="38" t="s">
-        <v>99</v>
       </c>
       <c r="K13" s="38" t="s">
         <v>24</v>
       </c>
       <c r="L13" s="27" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
     </row>
     <row r="14" spans="1:13" ht="15.75" customHeight="1">
@@ -23793,35 +23793,35 @@
         <v>11</v>
       </c>
       <c r="B14" s="13" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="C14" s="14" t="s">
         <v>18</v>
       </c>
       <c r="D14" s="66" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="E14" s="21" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="F14" s="30"/>
       <c r="G14" s="21" t="s">
+        <v>86</v>
+      </c>
+      <c r="H14" s="21" t="s">
         <v>87</v>
       </c>
-      <c r="H14" s="21" t="s">
+      <c r="I14" s="21" t="s">
+        <v>85</v>
+      </c>
+      <c r="J14" s="21" t="s">
         <v>88</v>
       </c>
-      <c r="I14" s="21" t="s">
-        <v>86</v>
-      </c>
-      <c r="J14" s="21" t="s">
+      <c r="K14" s="35" t="s">
+        <v>88</v>
+      </c>
+      <c r="L14" s="27" t="s">
         <v>89</v>
-      </c>
-      <c r="K14" s="35" t="s">
-        <v>89</v>
-      </c>
-      <c r="L14" s="27" t="s">
-        <v>90</v>
       </c>
     </row>
     <row r="15" spans="1:13" ht="15.75" customHeight="1">
@@ -32240,7 +32240,7 @@
   <sheetData>
     <row r="1" spans="1:7" ht="15.75" customHeight="1">
       <c r="A1" s="57" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="B1" s="68" t="s">
         <v>1</v>
@@ -32269,16 +32269,16 @@
         <v>4</v>
       </c>
       <c r="D3" s="61" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="E3" s="61" t="s">
         <v>7</v>
       </c>
       <c r="F3" s="62" t="s">
+        <v>122</v>
+      </c>
+      <c r="G3" s="63" t="s">
         <v>123</v>
-      </c>
-      <c r="G3" s="63" t="s">
-        <v>124</v>
       </c>
     </row>
     <row r="4" spans="1:7" ht="12.75">
@@ -32286,7 +32286,7 @@
         <v>1</v>
       </c>
       <c r="B4" s="13" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="C4" s="20" t="s">
         <v>18</v>
@@ -32298,7 +32298,7 @@
         <v>38</v>
       </c>
       <c r="F4" s="27" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
     </row>
     <row r="5" spans="1:7" ht="12.75">
@@ -32306,7 +32306,7 @@
         <v>2</v>
       </c>
       <c r="B5" s="19" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="C5" s="14" t="s">
         <v>22</v>
@@ -32318,7 +32318,7 @@
         <v>36</v>
       </c>
       <c r="F5" s="27" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="G5" s="13"/>
     </row>
@@ -32327,7 +32327,7 @@
         <v>3</v>
       </c>
       <c r="B6" s="19" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="C6" s="20" t="s">
         <v>18</v>
@@ -32339,7 +32339,7 @@
         <v>51</v>
       </c>
       <c r="F6" s="27" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="G6" s="13"/>
     </row>
@@ -32348,7 +32348,7 @@
         <v>4</v>
       </c>
       <c r="B7" s="52" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="C7" s="20" t="s">
         <v>15</v>
@@ -32358,10 +32358,10 @@
       </c>
       <c r="E7" s="30"/>
       <c r="F7" s="27" t="s">
+        <v>130</v>
+      </c>
+      <c r="G7" s="13" t="s">
         <v>131</v>
-      </c>
-      <c r="G7" s="13" t="s">
-        <v>132</v>
       </c>
     </row>
     <row r="8" spans="1:7" ht="12.75">
@@ -32379,7 +32379,7 @@
       </c>
       <c r="E8" s="64"/>
       <c r="F8" s="27" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
     </row>
     <row r="9" spans="1:7" ht="12.75">
@@ -32387,7 +32387,7 @@
         <v>6</v>
       </c>
       <c r="B9" s="19" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="C9" s="20" t="s">
         <v>15</v>
@@ -32397,7 +32397,7 @@
       </c>
       <c r="E9" s="17"/>
       <c r="F9" s="18" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
     </row>
     <row r="10" spans="1:7" ht="12.75">
@@ -32405,7 +32405,7 @@
         <v>7</v>
       </c>
       <c r="B10" s="13" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="C10" s="20" t="s">
         <v>18</v>
@@ -32415,7 +32415,7 @@
       </c>
       <c r="E10" s="64"/>
       <c r="F10" s="27" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
     </row>
     <row r="11" spans="1:7" ht="12.75">
@@ -32423,7 +32423,7 @@
         <v>8</v>
       </c>
       <c r="B11" s="19" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="C11" s="20" t="s">
         <v>15</v>
@@ -32433,10 +32433,10 @@
       </c>
       <c r="E11" s="17"/>
       <c r="F11" s="18" t="s">
+        <v>138</v>
+      </c>
+      <c r="G11" s="13" t="s">
         <v>139</v>
-      </c>
-      <c r="G11" s="13" t="s">
-        <v>140</v>
       </c>
     </row>
     <row r="12" spans="1:7" ht="12.75">
@@ -32454,10 +32454,10 @@
       </c>
       <c r="E12" s="64"/>
       <c r="F12" s="27" t="s">
+        <v>140</v>
+      </c>
+      <c r="G12" s="13" t="s">
         <v>141</v>
-      </c>
-      <c r="G12" s="13" t="s">
-        <v>142</v>
       </c>
     </row>
     <row r="13" spans="1:7" ht="12.75">

--- a/data/2020-03-10/Senior Cubers Worldwide - Weekly Competition - 2020-03-10.xlsx
+++ b/data/2020-03-10/Senior Cubers Worldwide - Weekly Competition - 2020-03-10.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22624"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22827"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Projects\WCA\scw-comp\data\2020-03-10\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E31A6B70-5F70-452C-8C45-97B915A0BABE}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{26EA749D-4DC1-4120-9BFA-C0F3A5EADBDA}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1013,7 +1013,7 @@
   <dimension ref="A1:N1060"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B18" sqref="B18"/>
+      <selection activeCell="E4" sqref="E4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1"/>
@@ -1113,7 +1113,7 @@
         <v>13.73</v>
       </c>
       <c r="E4" s="16">
-        <v>13.23</v>
+        <v>13.16</v>
       </c>
       <c r="F4" s="17" t="s">
         <v>143</v>
@@ -23321,7 +23321,7 @@
   <dimension ref="A1:M1039"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B12" sqref="B12"/>
+      <selection activeCell="E7" sqref="E7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1"/>
@@ -23541,7 +23541,7 @@
         <v>39.76</v>
       </c>
       <c r="E7" s="16">
-        <v>36.81</v>
+        <v>35.64</v>
       </c>
       <c r="F7" s="29"/>
       <c r="G7" s="16">
